--- a/out_data/最終発表用.xlsx
+++ b/out_data/最終発表用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyun\Documents\git\lab\out_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A909A4B1-361A-41D2-9183-5844AA94BF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B44CC-FCFE-4A32-9EFC-3C635F69F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="1830" windowWidth="13830" windowHeight="12330" xr2:uid="{8E14A2F3-61BD-415B-A3B6-71043875D196}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E14A2F3-61BD-415B-A3B6-71043875D196}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="66">
   <si>
     <t>lag_1</t>
   </si>
@@ -165,12 +165,84 @@
   </si>
   <si>
     <t>WS_01</t>
+  </si>
+  <si>
+    <t>再現率(%)</t>
+  </si>
+  <si>
+    <t>適合率(%)</t>
+  </si>
+  <si>
+    <t>調和平均(%)</t>
+  </si>
+  <si>
+    <t>ベンチマーク_lag = 1</t>
+  </si>
+  <si>
+    <t>全データ_lag = 1</t>
+  </si>
+  <si>
+    <t>上位10個_lag = 1</t>
+  </si>
+  <si>
+    <t>上位20個_lag = 1</t>
+  </si>
+  <si>
+    <t>上位30個_lag = 1</t>
+  </si>
+  <si>
+    <t>高低上位20個_lag = 1</t>
+  </si>
+  <si>
+    <t>ベンチマーク_lag = 2</t>
+  </si>
+  <si>
+    <t>全データ_lag = 2</t>
+  </si>
+  <si>
+    <t>上位10個_lag = 2</t>
+  </si>
+  <si>
+    <t>上位20個_lag = 2</t>
+  </si>
+  <si>
+    <t>上位30個_lag = 2</t>
+  </si>
+  <si>
+    <t>高低上位20個_lag = 2</t>
+  </si>
+  <si>
+    <t>ベンチマーク_lag = 3</t>
+  </si>
+  <si>
+    <t>全データ_lag = 3</t>
+  </si>
+  <si>
+    <t>上位10個_lag = 3</t>
+  </si>
+  <si>
+    <t>上位20個_lag = 3</t>
+  </si>
+  <si>
+    <t>上位30個_lag = 3</t>
+  </si>
+  <si>
+    <t>高低上位20個_lag = 3</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>高濃度RMSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,12 +297,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321334EC-531D-4ABD-9E99-190653BB74F0}">
-  <dimension ref="C4:K29"/>
+  <dimension ref="C4:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54:O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -979,6 +1054,1258 @@
         <v>30</v>
       </c>
     </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>85.713999999999999</v>
+      </c>
+      <c r="F34">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="2">
+        <v>75</v>
+      </c>
+      <c r="J34" s="2">
+        <v>85.713999999999999</v>
+      </c>
+      <c r="K34" s="2">
+        <v>80</v>
+      </c>
+      <c r="M34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="2">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="O34" s="2">
+        <v>76.923000000000002</v>
+      </c>
+      <c r="P34" s="2">
+        <v>54.054000000000002</v>
+      </c>
+      <c r="R34" t="s">
+        <v>58</v>
+      </c>
+      <c r="S34" s="2">
+        <v>45.832999999999998</v>
+      </c>
+      <c r="T34" s="2">
+        <v>57.895000000000003</v>
+      </c>
+      <c r="U34" s="2">
+        <v>51.162999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>90</v>
+      </c>
+      <c r="F35">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="2">
+        <v>75</v>
+      </c>
+      <c r="J35" s="2">
+        <v>90</v>
+      </c>
+      <c r="K35" s="2">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="2">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="O35" s="2">
+        <v>58.823999999999998</v>
+      </c>
+      <c r="P35" s="2">
+        <v>48.78</v>
+      </c>
+      <c r="R35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S35" s="2">
+        <v>54.167000000000002</v>
+      </c>
+      <c r="T35" s="2">
+        <v>61.905000000000001</v>
+      </c>
+      <c r="U35" s="2">
+        <v>57.777999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="E36">
+        <v>55.555999999999997</v>
+      </c>
+      <c r="F36">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="2">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="J36" s="2">
+        <v>55.555999999999997</v>
+      </c>
+      <c r="K36" s="2">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="M36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="2">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="O36" s="2">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="P36" s="2">
+        <v>52.631999999999998</v>
+      </c>
+      <c r="R36" t="s">
+        <v>60</v>
+      </c>
+      <c r="S36" s="2">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="T36" s="2">
+        <v>58.823999999999998</v>
+      </c>
+      <c r="U36" s="2">
+        <v>48.78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>78.260999999999996</v>
+      </c>
+      <c r="F37">
+        <v>76.596000000000004</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="2">
+        <v>75</v>
+      </c>
+      <c r="J37" s="2">
+        <v>78.260999999999996</v>
+      </c>
+      <c r="K37" s="2">
+        <v>76.596000000000004</v>
+      </c>
+      <c r="M37" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="2">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="O37" s="2">
+        <v>100</v>
+      </c>
+      <c r="P37" s="2">
+        <v>58.823999999999998</v>
+      </c>
+      <c r="R37" t="s">
+        <v>61</v>
+      </c>
+      <c r="S37" s="2">
+        <v>45.832999999999998</v>
+      </c>
+      <c r="T37" s="2">
+        <v>50</v>
+      </c>
+      <c r="U37" s="2">
+        <v>47.826000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>75</v>
+      </c>
+      <c r="E38">
+        <v>69.230999999999995</v>
+      </c>
+      <c r="F38">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="2">
+        <v>75</v>
+      </c>
+      <c r="J38" s="2">
+        <v>69.230999999999995</v>
+      </c>
+      <c r="K38" s="2">
+        <v>72</v>
+      </c>
+      <c r="M38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="2">
+        <v>50</v>
+      </c>
+      <c r="O38" s="2">
+        <v>38.71</v>
+      </c>
+      <c r="P38" s="2">
+        <v>43.636000000000003</v>
+      </c>
+      <c r="R38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38" s="2">
+        <v>50</v>
+      </c>
+      <c r="T38" s="2">
+        <v>75</v>
+      </c>
+      <c r="U38" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="E39">
+        <v>62.5</v>
+      </c>
+      <c r="F39">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="2">
+        <v>83.332999999999998</v>
+      </c>
+      <c r="J39" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="K39" s="2">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="M39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="2">
+        <v>50</v>
+      </c>
+      <c r="O39" s="2">
+        <v>48</v>
+      </c>
+      <c r="P39" s="2">
+        <v>48.98</v>
+      </c>
+      <c r="R39" t="s">
+        <v>63</v>
+      </c>
+      <c r="S39" s="2">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="T39" s="2">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="U39" s="2">
+        <v>51.281999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="E40">
+        <v>76.923000000000002</v>
+      </c>
+      <c r="F40">
+        <v>54.054000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="E41">
+        <v>58.823999999999998</v>
+      </c>
+      <c r="F41">
+        <v>48.78</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="E42">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="F42">
+        <v>52.631999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>58.823999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>38.71</v>
+      </c>
+      <c r="F44">
+        <v>43.636000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>45.832999999999998</v>
+      </c>
+      <c r="E46">
+        <v>57.895000000000003</v>
+      </c>
+      <c r="F46">
+        <v>51.162999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47">
+        <v>54.167000000000002</v>
+      </c>
+      <c r="E47">
+        <v>61.905000000000001</v>
+      </c>
+      <c r="F47">
+        <v>57.777999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="E48">
+        <v>58.823999999999998</v>
+      </c>
+      <c r="F48">
+        <v>48.78</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>45.832999999999998</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <v>47.826000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>75</v>
+      </c>
+      <c r="F50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>41.667000000000002</v>
+      </c>
+      <c r="E51">
+        <v>66.667000000000002</v>
+      </c>
+      <c r="F51">
+        <v>51.281999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" t="s">
+        <v>45</v>
+      </c>
+      <c r="N54" t="s">
+        <v>64</v>
+      </c>
+      <c r="O54" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S54" t="s">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s">
+        <v>64</v>
+      </c>
+      <c r="V54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>70.635000000000005</v>
+      </c>
+      <c r="E55">
+        <v>83.177999999999997</v>
+      </c>
+      <c r="F55">
+        <v>76.394999999999996</v>
+      </c>
+      <c r="G55">
+        <v>4.125</v>
+      </c>
+      <c r="H55">
+        <v>9.9550000000000001</v>
+      </c>
+      <c r="J55" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="2">
+        <v>70.635000000000005</v>
+      </c>
+      <c r="L55" s="2">
+        <v>83.177999999999997</v>
+      </c>
+      <c r="M55" s="2">
+        <v>76.394999999999996</v>
+      </c>
+      <c r="N55" s="2">
+        <v>4.125</v>
+      </c>
+      <c r="O55" s="2">
+        <v>9.9550000000000001</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>52</v>
+      </c>
+      <c r="R55" s="2">
+        <v>42.856999999999999</v>
+      </c>
+      <c r="S55" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" s="2">
+        <v>54.545000000000002</v>
+      </c>
+      <c r="U55" s="2">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="V55" s="2">
+        <v>15.994</v>
+      </c>
+      <c r="X55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>40.475999999999999</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>69.863</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>51.256</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>19.222000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56">
+        <v>58.73</v>
+      </c>
+      <c r="E56">
+        <v>88.094999999999999</v>
+      </c>
+      <c r="F56">
+        <v>70.475999999999999</v>
+      </c>
+      <c r="G56">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="H56">
+        <v>11.558999999999999</v>
+      </c>
+      <c r="J56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K56" s="2">
+        <v>58.73</v>
+      </c>
+      <c r="L56" s="2">
+        <v>88.094999999999999</v>
+      </c>
+      <c r="M56" s="2">
+        <v>70.475999999999999</v>
+      </c>
+      <c r="N56" s="2">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="O56" s="2">
+        <v>11.558999999999999</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>53</v>
+      </c>
+      <c r="R56" s="2">
+        <v>48.412999999999997</v>
+      </c>
+      <c r="S56" s="2">
+        <v>68.539000000000001</v>
+      </c>
+      <c r="T56" s="2">
+        <v>56.744</v>
+      </c>
+      <c r="U56" s="2">
+        <v>6.694</v>
+      </c>
+      <c r="V56" s="2">
+        <v>15.686</v>
+      </c>
+      <c r="X56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>32.54</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>68.332999999999998</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>44.085999999999999</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>8.5760000000000005</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>21.492000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>64.286000000000001</v>
+      </c>
+      <c r="G57">
+        <v>4.88</v>
+      </c>
+      <c r="H57">
+        <v>12.916</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" s="2">
+        <v>50</v>
+      </c>
+      <c r="L57" s="2">
+        <v>90</v>
+      </c>
+      <c r="M57" s="2">
+        <v>64.286000000000001</v>
+      </c>
+      <c r="N57" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="O57" s="2">
+        <v>12.916</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>54</v>
+      </c>
+      <c r="R57" s="2">
+        <v>57.143000000000001</v>
+      </c>
+      <c r="S57" s="2">
+        <v>78.260999999999996</v>
+      </c>
+      <c r="T57" s="2">
+        <v>66.055000000000007</v>
+      </c>
+      <c r="U57" s="2">
+        <v>6.35</v>
+      </c>
+      <c r="V57" s="2">
+        <v>14.576000000000001</v>
+      </c>
+      <c r="X57" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>52.381</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>61.682000000000002</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>56.652000000000001</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>8.8079999999999998</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>20.844999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>87.302000000000007</v>
+      </c>
+      <c r="E58">
+        <v>74.323999999999998</v>
+      </c>
+      <c r="F58">
+        <v>80.292000000000002</v>
+      </c>
+      <c r="G58">
+        <v>4.2889999999999997</v>
+      </c>
+      <c r="H58">
+        <v>8.9949999999999992</v>
+      </c>
+      <c r="J58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="2">
+        <v>87.302000000000007</v>
+      </c>
+      <c r="L58" s="2">
+        <v>74.323999999999998</v>
+      </c>
+      <c r="M58" s="2">
+        <v>80.292000000000002</v>
+      </c>
+      <c r="N58" s="2">
+        <v>4.2889999999999997</v>
+      </c>
+      <c r="O58" s="2">
+        <v>8.9949999999999992</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>55</v>
+      </c>
+      <c r="R58" s="2">
+        <v>43.651000000000003</v>
+      </c>
+      <c r="S58" s="2">
+        <v>85.938000000000002</v>
+      </c>
+      <c r="T58" s="2">
+        <v>57.895000000000003</v>
+      </c>
+      <c r="U58" s="2">
+        <v>6.6959999999999997</v>
+      </c>
+      <c r="V58" s="2">
+        <v>16.245000000000001</v>
+      </c>
+      <c r="X58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>64.947999999999993</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>56.502000000000002</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>19.062000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59">
+        <v>76.983999999999995</v>
+      </c>
+      <c r="E59">
+        <v>80.832999999999998</v>
+      </c>
+      <c r="F59">
+        <v>78.861999999999995</v>
+      </c>
+      <c r="G59">
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="H59">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="J59" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="2">
+        <v>76.983999999999995</v>
+      </c>
+      <c r="L59" s="2">
+        <v>80.832999999999998</v>
+      </c>
+      <c r="M59" s="2">
+        <v>78.861999999999995</v>
+      </c>
+      <c r="N59" s="2">
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="O59" s="2">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" s="2">
+        <v>26.984000000000002</v>
+      </c>
+      <c r="S59" s="2">
+        <v>85</v>
+      </c>
+      <c r="T59" s="2">
+        <v>40.963999999999999</v>
+      </c>
+      <c r="U59" s="2">
+        <v>6.9989999999999997</v>
+      </c>
+      <c r="V59" s="2">
+        <v>19.213999999999999</v>
+      </c>
+      <c r="X59" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>26.19</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>89.188999999999993</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>40.491</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>9.0709999999999997</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>23.733000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>69.048000000000002</v>
+      </c>
+      <c r="E60">
+        <v>89.691000000000003</v>
+      </c>
+      <c r="F60">
+        <v>78.027000000000001</v>
+      </c>
+      <c r="G60">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="H60">
+        <v>9.9410000000000007</v>
+      </c>
+      <c r="J60" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="2">
+        <v>69.048000000000002</v>
+      </c>
+      <c r="L60" s="2">
+        <v>89.691000000000003</v>
+      </c>
+      <c r="M60" s="2">
+        <v>78.027000000000001</v>
+      </c>
+      <c r="N60" s="2">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="O60" s="2">
+        <v>9.9410000000000007</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>57</v>
+      </c>
+      <c r="R60" s="2">
+        <v>30.952000000000002</v>
+      </c>
+      <c r="S60" s="2">
+        <v>88.635999999999996</v>
+      </c>
+      <c r="T60" s="2">
+        <v>45.881999999999998</v>
+      </c>
+      <c r="U60" s="2">
+        <v>6.8410000000000002</v>
+      </c>
+      <c r="V60" s="2">
+        <v>19.893999999999998</v>
+      </c>
+      <c r="X60" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>50.793999999999997</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>60.377000000000002</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>55.171999999999997</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>8.8930000000000007</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>17.052</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>42.856999999999999</v>
+      </c>
+      <c r="E61">
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <v>54.545000000000002</v>
+      </c>
+      <c r="G61">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="H61">
+        <v>15.994</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62">
+        <v>48.412999999999997</v>
+      </c>
+      <c r="E62">
+        <v>68.539000000000001</v>
+      </c>
+      <c r="F62">
+        <v>56.744</v>
+      </c>
+      <c r="G62">
+        <v>6.694</v>
+      </c>
+      <c r="H62">
+        <v>15.686</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>57.143000000000001</v>
+      </c>
+      <c r="E63">
+        <v>78.260999999999996</v>
+      </c>
+      <c r="F63">
+        <v>66.055000000000007</v>
+      </c>
+      <c r="G63">
+        <v>6.35</v>
+      </c>
+      <c r="H63">
+        <v>14.576000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <v>43.651000000000003</v>
+      </c>
+      <c r="E64">
+        <v>85.938000000000002</v>
+      </c>
+      <c r="F64">
+        <v>57.895000000000003</v>
+      </c>
+      <c r="G64">
+        <v>6.6959999999999997</v>
+      </c>
+      <c r="H64">
+        <v>16.245000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65">
+        <v>26.984000000000002</v>
+      </c>
+      <c r="E65">
+        <v>85</v>
+      </c>
+      <c r="F65">
+        <v>40.963999999999999</v>
+      </c>
+      <c r="G65">
+        <v>6.9989999999999997</v>
+      </c>
+      <c r="H65">
+        <v>19.213999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66">
+        <v>30.952000000000002</v>
+      </c>
+      <c r="E66">
+        <v>88.635999999999996</v>
+      </c>
+      <c r="F66">
+        <v>45.881999999999998</v>
+      </c>
+      <c r="G66">
+        <v>6.8410000000000002</v>
+      </c>
+      <c r="H66">
+        <v>19.893999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67">
+        <v>40.475999999999999</v>
+      </c>
+      <c r="E67">
+        <v>69.863</v>
+      </c>
+      <c r="F67">
+        <v>51.256</v>
+      </c>
+      <c r="G67">
+        <v>8.8849999999999998</v>
+      </c>
+      <c r="H67">
+        <v>19.222000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68">
+        <v>32.54</v>
+      </c>
+      <c r="E68">
+        <v>68.332999999999998</v>
+      </c>
+      <c r="F68">
+        <v>44.085999999999999</v>
+      </c>
+      <c r="G68">
+        <v>8.5760000000000005</v>
+      </c>
+      <c r="H68">
+        <v>21.492000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69">
+        <v>52.381</v>
+      </c>
+      <c r="E69">
+        <v>61.682000000000002</v>
+      </c>
+      <c r="F69">
+        <v>56.652000000000001</v>
+      </c>
+      <c r="G69">
+        <v>8.8079999999999998</v>
+      </c>
+      <c r="H69">
+        <v>20.844999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>64.947999999999993</v>
+      </c>
+      <c r="F70">
+        <v>56.502000000000002</v>
+      </c>
+      <c r="G70">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="H70">
+        <v>19.062000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71">
+        <v>26.19</v>
+      </c>
+      <c r="E71">
+        <v>89.188999999999993</v>
+      </c>
+      <c r="F71">
+        <v>40.491</v>
+      </c>
+      <c r="G71">
+        <v>9.0709999999999997</v>
+      </c>
+      <c r="H71">
+        <v>23.733000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>50.793999999999997</v>
+      </c>
+      <c r="E72">
+        <v>60.377000000000002</v>
+      </c>
+      <c r="F72">
+        <v>55.171999999999997</v>
+      </c>
+      <c r="G72">
+        <v>8.8930000000000007</v>
+      </c>
+      <c r="H72">
+        <v>17.052</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/out_data/最終発表用.xlsx
+++ b/out_data/最終発表用.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyun\Documents\git\lab\out_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\airs\Documents\python_code\git_data\lab\out_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0B44CC-FCFE-4A32-9EFC-3C635F69F8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E14A2F3-61BD-415B-A3B6-71043875D196}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="91">
   <si>
     <t>lag_1</t>
   </si>
@@ -234,16 +233,156 @@
   </si>
   <si>
     <t>高濃度RMSE</t>
+  </si>
+  <si>
+    <t>東秩父</t>
+    <rPh sb="0" eb="3">
+      <t>ヒガシチチブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鴻巣</t>
+    <rPh sb="0" eb="2">
+      <t>コウノス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸手</t>
+    <rPh sb="0" eb="2">
+      <t>サッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東青梅</t>
+    <rPh sb="0" eb="3">
+      <t>ヒガシオウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所沢</t>
+    <rPh sb="0" eb="2">
+      <t>トコロザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草加</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷</t>
+    <rPh sb="0" eb="3">
+      <t>セタガヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南葛西</t>
+    <rPh sb="0" eb="3">
+      <t>ミナミカサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CH₄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO₂</t>
+  </si>
+  <si>
+    <t>NOx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM₂.₅</t>
+  </si>
+  <si>
+    <r>
+      <t>SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>SPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多摩市愛宕</t>
+    <rPh sb="0" eb="3">
+      <t>タマシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アタゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>☓</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +397,21 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,15 +451,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,20 +800,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321334EC-531D-4ABD-9E99-190653BB74F0}">
-  <dimension ref="C4:AC72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:AR76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54:O60"/>
+    <sheetView tabSelected="1" topLeftCell="AB61" workbookViewId="0">
+      <selection activeCell="AQ83" sqref="AQ83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -665,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -679,7 +866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
@@ -693,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
@@ -736,7 +923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
@@ -788,7 +975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -814,7 +1001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -828,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -842,12 +1029,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>17</v>
       </c>
@@ -870,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -887,7 +1074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -901,7 +1088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>23</v>
       </c>
@@ -915,12 +1102,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>17</v>
       </c>
@@ -943,7 +1130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D24" t="s">
         <v>30</v>
       </c>
@@ -957,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>21</v>
       </c>
@@ -980,7 +1167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
         <v>31</v>
       </c>
@@ -1023,7 +1210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
         <v>43</v>
       </c>
@@ -1092,7 +1279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>46</v>
       </c>
@@ -1142,7 +1329,7 @@
         <v>51.162999999999997</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C35" t="s">
         <v>47</v>
       </c>
@@ -1192,7 +1379,7 @@
         <v>57.777999999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>48</v>
       </c>
@@ -1242,7 +1429,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1479,7 @@
         <v>47.826000000000001</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -1342,7 +1529,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1579,7 @@
         <v>51.281999999999996</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>52</v>
       </c>
@@ -1406,7 +1593,7 @@
         <v>54.054000000000002</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>53</v>
       </c>
@@ -1420,7 +1607,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>54</v>
       </c>
@@ -1434,7 +1621,7 @@
         <v>52.631999999999998</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>55</v>
       </c>
@@ -1448,7 +1635,7 @@
         <v>58.823999999999998</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
         <v>56</v>
       </c>
@@ -1462,7 +1649,7 @@
         <v>43.636000000000003</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>57</v>
       </c>
@@ -1476,7 +1663,7 @@
         <v>48.98</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -1490,7 +1677,7 @@
         <v>51.162999999999997</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>59</v>
       </c>
@@ -1504,7 +1691,7 @@
         <v>57.777999999999999</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:21" x14ac:dyDescent="0.4">
       <c r="C48" t="s">
         <v>60</v>
       </c>
@@ -1518,7 +1705,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C49" t="s">
         <v>61</v>
       </c>
@@ -1532,7 +1719,7 @@
         <v>47.826000000000001</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C50" t="s">
         <v>62</v>
       </c>
@@ -1546,7 +1733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>63</v>
       </c>
@@ -1560,7 +1747,7 @@
         <v>51.281999999999996</v>
       </c>
     </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:29" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>46</v>
       </c>
@@ -1696,7 +1883,7 @@
         <v>19.222000000000001</v>
       </c>
     </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>47</v>
       </c>
@@ -1770,7 +1957,7 @@
         <v>21.492000000000001</v>
       </c>
     </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C57" t="s">
         <v>48</v>
       </c>
@@ -1844,7 +2031,7 @@
         <v>20.844999999999999</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>49</v>
       </c>
@@ -1918,7 +2105,7 @@
         <v>19.062000000000001</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C59" t="s">
         <v>50</v>
       </c>
@@ -1992,7 +2179,7 @@
         <v>23.733000000000001</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
         <v>51</v>
       </c>
@@ -2066,7 +2253,7 @@
         <v>17.052</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
         <v>52</v>
       </c>
@@ -2086,7 +2273,7 @@
         <v>15.994</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C62" t="s">
         <v>53</v>
       </c>
@@ -2106,7 +2293,7 @@
         <v>15.686</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>54</v>
       </c>
@@ -2126,7 +2313,7 @@
         <v>14.576000000000001</v>
       </c>
     </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:29" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
         <v>55</v>
       </c>
@@ -2146,7 +2333,7 @@
         <v>16.245000000000001</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
         <v>56</v>
       </c>
@@ -2166,7 +2353,7 @@
         <v>19.213999999999999</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
         <v>57</v>
       </c>
@@ -2186,7 +2373,7 @@
         <v>19.893999999999998</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
         <v>58</v>
       </c>
@@ -2205,8 +2392,51 @@
       <c r="H67">
         <v>19.222000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR67" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
         <v>59</v>
       </c>
@@ -2225,8 +2455,53 @@
       <c r="H68">
         <v>21.492000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="AD68" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR68" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
         <v>60</v>
       </c>
@@ -2245,8 +2520,53 @@
       <c r="H69">
         <v>20.844999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="AD69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR69" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
         <v>61</v>
       </c>
@@ -2265,8 +2585,53 @@
       <c r="H70">
         <v>19.062000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="AD70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR70" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>62</v>
       </c>
@@ -2285,8 +2650,53 @@
       <c r="H71">
         <v>23.733000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="AD71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR71" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="3:44" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
         <v>63</v>
       </c>
@@ -2304,10 +2714,244 @@
       </c>
       <c r="H72">
         <v>17.052</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR72" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="3:44" x14ac:dyDescent="0.4">
+      <c r="AD73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR73" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="3:44" x14ac:dyDescent="0.4">
+      <c r="AD74" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="3:44" x14ac:dyDescent="0.4">
+      <c r="AD75" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="3:44" x14ac:dyDescent="0.4">
+      <c r="AD76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM76" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR76" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>